--- a/mActualizarDescripciones/formatos/DESC.xlsx
+++ b/mActualizarDescripciones/formatos/DESC.xlsx
@@ -1,43 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Acosta\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41963A1A-1D67-4990-A8E8-66D53D4CDED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>descripcion</t>
-  </si>
-  <si>
-    <t>Bota Top moda 116/125 T14/21</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>*XD D REXONA ST ANTIB INV H BAR 50 ML</t>
+  </si>
+  <si>
+    <t>*XD SH VANART CLASICO KERATINA180 ML</t>
+  </si>
+  <si>
+    <t>*XD LUBRIDERM R INT +CR 120 ML</t>
+  </si>
+  <si>
+    <t>*XD T FEM KOTEX ANATOMICA C/A C/16 PZ</t>
+  </si>
+  <si>
+    <t>*XD D LADY SS A COOL AQUA 91 GR/150 ML</t>
+  </si>
+  <si>
+    <t>*XD D OBAO A MISS ANGEL 150 ML</t>
+  </si>
+  <si>
+    <t>*XD LUBRIDERM REP INT 200 ML</t>
+  </si>
+  <si>
+    <t>*XD D REXONA A ANTIBAC M AER AP 150ML</t>
+  </si>
+  <si>
+    <t>*XD JAB DOVE BLANCO 100 GR</t>
+  </si>
+  <si>
+    <t>7501752513204</t>
+  </si>
+  <si>
+    <t>7501080912083</t>
+  </si>
+  <si>
+    <t>7509546063461</t>
+  </si>
+  <si>
+    <t>7509552839043</t>
+  </si>
+  <si>
+    <t>7791293032375</t>
+  </si>
+  <si>
+    <t>75058838</t>
+  </si>
+  <si>
+    <t>8720182002280</t>
+  </si>
+  <si>
+    <t>7501007529721</t>
+  </si>
+  <si>
+    <t>7702035870384</t>
+  </si>
+  <si>
+    <t>650240039744</t>
+  </si>
+  <si>
+    <t>7501017360796</t>
+  </si>
+  <si>
+    <t>7509552910407</t>
+  </si>
+  <si>
+    <t>7506078972261</t>
+  </si>
+  <si>
+    <t>7501199416885</t>
+  </si>
+  <si>
+    <t>7509552844795</t>
+  </si>
+  <si>
+    <t>7506306222809</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>*XD DERMOVAL CREMA TUBO 30 GR.</t>
+  </si>
+  <si>
+    <t>*XD STERIMAR A/MAR NASAL SP 50 ML USO DIARIO</t>
+  </si>
+  <si>
+    <t>*XD D OBAO A F. INTENSA 150 ML</t>
+  </si>
+  <si>
+    <t>*XD D OBAO A FRESCURA SUAVE 105 GR</t>
+  </si>
+  <si>
+    <t>*XD GEL XTREME PRINCESA 200G</t>
+  </si>
+  <si>
+    <t>*XD OBAO NATURAL A COCO 150 ML.</t>
+  </si>
+  <si>
+    <t>*XD ZEST HW LIQ REFRESCANTE 120ML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -56,21 +166,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -87,44 +242,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -152,14 +307,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -187,6 +359,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -198,220 +387,294 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>757665</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>